--- a/server/dataBase/dataBase.xlsx
+++ b/server/dataBase/dataBase.xlsx
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>11</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>258</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>15</v>
@@ -1343,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>100</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>100</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>16</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>18</v>
